--- a/typhoon20170611-20170324.xlsx
+++ b/typhoon20170611-20170324.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\307008812\Desktop\testRecoveryConvertor\solution-20170611\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\502758724\workspace\Java\ExcelTool-WithShowPanel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17440" yWindow="0" windowWidth="24000" windowHeight="9210" activeTab="3"/>
+    <workbookView xWindow="17445" yWindow="0" windowWidth="24000" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="cancelled-flights" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="273">
   <si>
     <t>Flt</t>
   </si>
@@ -840,6 +840,18 @@
   <si>
     <t>B5601 </t>
   </si>
+  <si>
+    <t>B5595</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HGH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -849,7 +861,7 @@
     <numFmt numFmtId="176" formatCode="mm/dd"/>
     <numFmt numFmtId="177" formatCode="hhmm"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1795,22 +1807,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I241"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I241"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08203125" style="1"/>
-    <col min="7" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="7" t="s">
         <v>213</v>
       </c>
@@ -1839,33 +1851,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15">
       <c r="B2" s="10">
-        <v>801</v>
+        <v>8534</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>14</v>
+        <v>271</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>158</v>
+        <v>272</v>
       </c>
       <c r="F2" s="11">
-        <v>42818.572916666664</v>
+        <v>42820.371527777781</v>
       </c>
       <c r="G2" s="12">
-        <v>42818.572916666664</v>
+        <v>42820.371527777781</v>
       </c>
       <c r="H2" s="12">
-        <v>42818.96875</v>
+        <v>42820.444444444445</v>
       </c>
       <c r="I2" s="10">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15">
       <c r="B3" s="10">
         <v>802</v>
       </c>
@@ -1891,7 +1903,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15">
       <c r="B4" s="10">
         <v>806</v>
       </c>
@@ -1917,7 +1929,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15">
       <c r="B5" s="10">
         <v>809</v>
       </c>
@@ -1943,7 +1955,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15">
       <c r="B6" s="10">
         <v>810</v>
       </c>
@@ -1969,7 +1981,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15">
       <c r="B7" s="10">
         <v>811</v>
       </c>
@@ -1995,7 +2007,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15">
       <c r="B8" s="10">
         <v>817</v>
       </c>
@@ -2021,7 +2033,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15">
       <c r="B9" s="10">
         <v>818</v>
       </c>
@@ -2047,7 +2059,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15">
       <c r="B10" s="10">
         <v>819</v>
       </c>
@@ -2073,7 +2085,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15">
       <c r="B11" s="10">
         <v>820</v>
       </c>
@@ -2099,7 +2111,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15">
       <c r="B12" s="10">
         <v>824</v>
       </c>
@@ -2125,7 +2137,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15">
       <c r="B13" s="10">
         <v>831</v>
       </c>
@@ -2151,7 +2163,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15">
       <c r="B14" s="10">
         <v>831</v>
       </c>
@@ -2177,7 +2189,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15">
       <c r="B15" s="10">
         <v>834</v>
       </c>
@@ -2203,7 +2215,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15">
       <c r="B16" s="10">
         <v>849</v>
       </c>
@@ -2229,7 +2241,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="15">
       <c r="B17" s="10">
         <v>852</v>
       </c>
@@ -2255,7 +2267,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" ht="15">
       <c r="B18" s="10">
         <v>852</v>
       </c>
@@ -2281,7 +2293,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="15">
       <c r="B19" s="10">
         <v>853</v>
       </c>
@@ -2307,7 +2319,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="15">
       <c r="B20" s="10">
         <v>854</v>
       </c>
@@ -2333,7 +2345,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="15">
       <c r="B21" s="10">
         <v>854</v>
       </c>
@@ -2359,7 +2371,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="15">
       <c r="B22" s="10">
         <v>855</v>
       </c>
@@ -2385,7 +2397,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" ht="15">
       <c r="B23" s="10">
         <v>855</v>
       </c>
@@ -2411,7 +2423,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="15">
       <c r="B24" s="10">
         <v>861</v>
       </c>
@@ -2437,7 +2449,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="15">
       <c r="B25" s="10">
         <v>862</v>
       </c>
@@ -2463,7 +2475,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" ht="15">
       <c r="B26" s="10">
         <v>866</v>
       </c>
@@ -2489,7 +2501,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" ht="15">
       <c r="B27" s="10">
         <v>868</v>
       </c>
@@ -2515,7 +2527,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" ht="15">
       <c r="B28" s="10">
         <v>868</v>
       </c>
@@ -2541,7 +2553,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="15">
       <c r="B29" s="10">
         <v>869</v>
       </c>
@@ -2567,7 +2579,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" ht="15">
       <c r="B30" s="10">
         <v>869</v>
       </c>
@@ -2593,7 +2605,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" ht="15">
       <c r="B31" s="10">
         <v>875</v>
       </c>
@@ -2619,7 +2631,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" ht="15">
       <c r="B32" s="10">
         <v>877</v>
       </c>
@@ -2645,7 +2657,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="15">
       <c r="B33" s="10">
         <v>877</v>
       </c>
@@ -2671,7 +2683,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" ht="15">
       <c r="B34" s="10">
         <v>878</v>
       </c>
@@ -2697,7 +2709,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" ht="15">
       <c r="B35" s="10">
         <v>878</v>
       </c>
@@ -2723,7 +2735,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" ht="15">
       <c r="B36" s="10">
         <v>881</v>
       </c>
@@ -2749,7 +2761,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" ht="15">
       <c r="B37" s="10">
         <v>882</v>
       </c>
@@ -2775,7 +2787,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" ht="15">
       <c r="B38" s="10">
         <v>883</v>
       </c>
@@ -2801,7 +2813,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" ht="15">
       <c r="B39" s="10">
         <v>884</v>
       </c>
@@ -2827,7 +2839,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" ht="15">
       <c r="B40" s="10">
         <v>891</v>
       </c>
@@ -2853,7 +2865,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" ht="15">
       <c r="B41" s="10">
         <v>892</v>
       </c>
@@ -2879,7 +2891,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" ht="15">
       <c r="B42" s="10">
         <v>897</v>
       </c>
@@ -2905,7 +2917,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" ht="15">
       <c r="B43" s="10">
         <v>8005</v>
       </c>
@@ -2931,7 +2943,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" ht="15">
       <c r="B44" s="10">
         <v>8006</v>
       </c>
@@ -2957,7 +2969,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" ht="15">
       <c r="B45" s="10">
         <v>8015</v>
       </c>
@@ -2983,7 +2995,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" ht="15">
       <c r="B46" s="10">
         <v>8018</v>
       </c>
@@ -3009,7 +3021,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" ht="15">
       <c r="B47" s="10">
         <v>8032</v>
       </c>
@@ -3035,7 +3047,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" ht="15">
       <c r="B48" s="10">
         <v>8041</v>
       </c>
@@ -3061,7 +3073,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" ht="15">
       <c r="B49" s="10">
         <v>8042</v>
       </c>
@@ -3087,7 +3099,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" ht="15">
       <c r="B50" s="10">
         <v>8045</v>
       </c>
@@ -3113,7 +3125,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" ht="15">
       <c r="B51" s="10">
         <v>8050</v>
       </c>
@@ -3139,7 +3151,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" ht="15">
       <c r="B52" s="10">
         <v>8052</v>
       </c>
@@ -3165,7 +3177,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" ht="15">
       <c r="B53" s="10">
         <v>8054</v>
       </c>
@@ -3191,7 +3203,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" ht="15">
       <c r="B54" s="10">
         <v>8057</v>
       </c>
@@ -3217,7 +3229,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" ht="15">
       <c r="B55" s="10">
         <v>8058</v>
       </c>
@@ -3243,7 +3255,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" ht="15">
       <c r="B56" s="10">
         <v>8059</v>
       </c>
@@ -3269,7 +3281,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" ht="15">
       <c r="B57" s="10">
         <v>8060</v>
       </c>
@@ -3295,7 +3307,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" ht="15">
       <c r="B58" s="10">
         <v>8061</v>
       </c>
@@ -3321,7 +3333,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" ht="15">
       <c r="B59" s="10">
         <v>8062</v>
       </c>
@@ -3347,7 +3359,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" ht="15">
       <c r="B60" s="10">
         <v>8069</v>
       </c>
@@ -3373,7 +3385,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" ht="15">
       <c r="B61" s="10">
         <v>8069</v>
       </c>
@@ -3399,7 +3411,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" ht="15">
       <c r="B62" s="10">
         <v>8069</v>
       </c>
@@ -3425,7 +3437,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" ht="15">
       <c r="B63" s="10">
         <v>8070</v>
       </c>
@@ -3451,7 +3463,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" ht="15">
       <c r="B64" s="10">
         <v>8070</v>
       </c>
@@ -3477,7 +3489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" ht="15">
       <c r="B65" s="10">
         <v>8075</v>
       </c>
@@ -3503,7 +3515,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" ht="15">
       <c r="B66" s="10">
         <v>8076</v>
       </c>
@@ -3529,7 +3541,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" ht="15">
       <c r="B67" s="10">
         <v>8093</v>
       </c>
@@ -3555,7 +3567,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" ht="15">
       <c r="B68" s="10">
         <v>8094</v>
       </c>
@@ -3581,7 +3593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" ht="15">
       <c r="B69" s="10">
         <v>8101</v>
       </c>
@@ -3607,7 +3619,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" ht="15">
       <c r="B70" s="10">
         <v>8102</v>
       </c>
@@ -3633,7 +3645,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" ht="15">
       <c r="B71" s="10">
         <v>8103</v>
       </c>
@@ -3659,7 +3671,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" ht="15">
       <c r="B72" s="10">
         <v>8104</v>
       </c>
@@ -3685,7 +3697,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" ht="15">
       <c r="B73" s="10">
         <v>8106</v>
       </c>
@@ -3711,7 +3723,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" ht="15">
       <c r="B74" s="10">
         <v>8108</v>
       </c>
@@ -3737,7 +3749,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" ht="15">
       <c r="B75" s="10">
         <v>8112</v>
       </c>
@@ -3763,7 +3775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" ht="15">
       <c r="B76" s="10">
         <v>8114</v>
       </c>
@@ -3789,7 +3801,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" ht="15">
       <c r="B77" s="10">
         <v>8115</v>
       </c>
@@ -3815,7 +3827,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" ht="15">
       <c r="B78" s="10">
         <v>8116</v>
       </c>
@@ -3841,7 +3853,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" ht="15">
       <c r="B79" s="10">
         <v>8119</v>
       </c>
@@ -3867,7 +3879,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" ht="15">
       <c r="B80" s="10">
         <v>8120</v>
       </c>
@@ -3893,7 +3905,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" ht="15">
       <c r="B81" s="10">
         <v>8123</v>
       </c>
@@ -3919,7 +3931,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9" ht="15">
       <c r="B82" s="10">
         <v>8126</v>
       </c>
@@ -3945,7 +3957,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" ht="15">
       <c r="B83" s="10">
         <v>8131</v>
       </c>
@@ -3971,7 +3983,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" ht="15">
       <c r="B84" s="10">
         <v>8133</v>
       </c>
@@ -3997,7 +4009,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9" ht="15">
       <c r="B85" s="10">
         <v>8139</v>
       </c>
@@ -4023,7 +4035,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9" ht="15">
       <c r="B86" s="10">
         <v>8140</v>
       </c>
@@ -4049,7 +4061,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9" ht="15">
       <c r="B87" s="10">
         <v>8140</v>
       </c>
@@ -4075,7 +4087,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9" ht="15">
       <c r="B88" s="10">
         <v>8151</v>
       </c>
@@ -4101,7 +4113,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9" ht="15">
       <c r="B89" s="10">
         <v>8152</v>
       </c>
@@ -4127,7 +4139,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:9" ht="15">
       <c r="B90" s="10">
         <v>8154</v>
       </c>
@@ -4153,7 +4165,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:9" ht="15">
       <c r="B91" s="10">
         <v>8156</v>
       </c>
@@ -4179,7 +4191,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:9" ht="15">
       <c r="B92" s="10">
         <v>8158</v>
       </c>
@@ -4205,7 +4217,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:9" ht="15">
       <c r="B93" s="10">
         <v>8159</v>
       </c>
@@ -4231,7 +4243,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:9" ht="15">
       <c r="B94" s="10">
         <v>8161</v>
       </c>
@@ -4257,7 +4269,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:9" ht="15">
       <c r="B95" s="10">
         <v>8162</v>
       </c>
@@ -4283,7 +4295,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:9" ht="15">
       <c r="B96" s="10">
         <v>8166</v>
       </c>
@@ -4309,7 +4321,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:9" ht="15">
       <c r="B97" s="10">
         <v>8169</v>
       </c>
@@ -4335,7 +4347,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:9" ht="15">
       <c r="B98" s="10">
         <v>8171</v>
       </c>
@@ -4361,7 +4373,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:9" ht="15">
       <c r="B99" s="10">
         <v>8175</v>
       </c>
@@ -4387,7 +4399,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:9" ht="15">
       <c r="B100" s="10">
         <v>8176</v>
       </c>
@@ -4413,7 +4425,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:9" ht="15">
       <c r="B101" s="10">
         <v>8184</v>
       </c>
@@ -4439,7 +4451,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:9" ht="15">
       <c r="B102" s="10">
         <v>8185</v>
       </c>
@@ -4465,7 +4477,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:9" ht="15">
       <c r="B103" s="10">
         <v>8186</v>
       </c>
@@ -4491,7 +4503,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:9" ht="15">
       <c r="B104" s="10">
         <v>8207</v>
       </c>
@@ -4517,7 +4529,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:9" ht="15">
       <c r="B105" s="10">
         <v>8210</v>
       </c>
@@ -4543,7 +4555,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:9" ht="15">
       <c r="B106" s="10">
         <v>8211</v>
       </c>
@@ -4569,7 +4581,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:9" ht="15">
       <c r="B107" s="10">
         <v>8212</v>
       </c>
@@ -4595,7 +4607,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:9" ht="15">
       <c r="B108" s="10">
         <v>8216</v>
       </c>
@@ -4621,7 +4633,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:9" ht="15">
       <c r="B109" s="10">
         <v>8217</v>
       </c>
@@ -4647,7 +4659,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:9" ht="15">
       <c r="B110" s="10">
         <v>8218</v>
       </c>
@@ -4673,7 +4685,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:9" ht="15">
       <c r="B111" s="10">
         <v>8221</v>
       </c>
@@ -4699,7 +4711,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:9" ht="15">
       <c r="B112" s="10">
         <v>8222</v>
       </c>
@@ -4725,7 +4737,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:9" ht="15">
       <c r="B113" s="10">
         <v>8225</v>
       </c>
@@ -4751,7 +4763,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:9" ht="15">
       <c r="B114" s="10">
         <v>8237</v>
       </c>
@@ -4777,7 +4789,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:9" ht="15">
       <c r="B115" s="10">
         <v>8238</v>
       </c>
@@ -4803,7 +4815,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:9" ht="15">
       <c r="B116" s="10">
         <v>8248</v>
       </c>
@@ -4829,7 +4841,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:9" ht="15">
       <c r="B117" s="10">
         <v>8250</v>
       </c>
@@ -4855,7 +4867,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:9" ht="15">
       <c r="B118" s="10">
         <v>8253</v>
       </c>
@@ -4881,7 +4893,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:9" ht="15">
       <c r="B119" s="10">
         <v>8274</v>
       </c>
@@ -4907,7 +4919,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:9" ht="15">
       <c r="B120" s="10">
         <v>8275</v>
       </c>
@@ -4933,7 +4945,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:9" ht="15">
       <c r="B121" s="10">
         <v>8277</v>
       </c>
@@ -4959,7 +4971,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:9" ht="15">
       <c r="B122" s="10">
         <v>8295</v>
       </c>
@@ -4985,7 +4997,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:9" ht="15">
       <c r="B123" s="10">
         <v>8295</v>
       </c>
@@ -5011,7 +5023,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:9" ht="15">
       <c r="B124" s="10">
         <v>8301</v>
       </c>
@@ -5037,7 +5049,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:9" ht="15">
       <c r="B125" s="10">
         <v>8306</v>
       </c>
@@ -5063,7 +5075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:9" ht="15">
       <c r="B126" s="10">
         <v>8307</v>
       </c>
@@ -5089,7 +5101,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:9" ht="15">
       <c r="B127" s="10">
         <v>8308</v>
       </c>
@@ -5115,7 +5127,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:9" ht="15">
       <c r="B128" s="10">
         <v>8323</v>
       </c>
@@ -5141,7 +5153,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:9" ht="15">
       <c r="B129" s="10">
         <v>8324</v>
       </c>
@@ -5167,7 +5179,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:9" ht="15">
       <c r="B130" s="10">
         <v>8325</v>
       </c>
@@ -5193,7 +5205,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:9" ht="15">
       <c r="B131" s="10">
         <v>8331</v>
       </c>
@@ -5219,7 +5231,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:9" ht="15">
       <c r="B132" s="10">
         <v>8331</v>
       </c>
@@ -5245,7 +5257,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:9" ht="15">
       <c r="B133" s="10">
         <v>8332</v>
       </c>
@@ -5271,7 +5283,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:9" ht="15">
       <c r="B134" s="10">
         <v>8332</v>
       </c>
@@ -5297,7 +5309,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:9" ht="15">
       <c r="B135" s="10">
         <v>8333</v>
       </c>
@@ -5323,7 +5335,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:9" ht="15">
       <c r="B136" s="10">
         <v>8334</v>
       </c>
@@ -5349,7 +5361,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:9" ht="15">
       <c r="B137" s="10">
         <v>8339</v>
       </c>
@@ -5375,7 +5387,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:9" ht="15">
       <c r="B138" s="10">
         <v>8339</v>
       </c>
@@ -5401,7 +5413,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:9" ht="15">
       <c r="B139" s="10">
         <v>8340</v>
       </c>
@@ -5427,7 +5439,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:9" ht="15">
       <c r="B140" s="10">
         <v>8340</v>
       </c>
@@ -5453,7 +5465,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:9" ht="15">
       <c r="B141" s="10">
         <v>8342</v>
       </c>
@@ -5479,7 +5491,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:9" ht="15">
       <c r="B142" s="10">
         <v>8342</v>
       </c>
@@ -5505,7 +5517,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:9" ht="15">
       <c r="B143" s="10">
         <v>8348</v>
       </c>
@@ -5531,7 +5543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:9" ht="15">
       <c r="B144" s="10">
         <v>8359</v>
       </c>
@@ -5557,7 +5569,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:9" ht="15">
       <c r="B145" s="10">
         <v>8360</v>
       </c>
@@ -5583,7 +5595,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:9" ht="15">
       <c r="B146" s="10">
         <v>8361</v>
       </c>
@@ -5609,7 +5621,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:9" ht="15">
       <c r="B147" s="10">
         <v>8362</v>
       </c>
@@ -5635,7 +5647,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:9" ht="15">
       <c r="B148" s="10">
         <v>8367</v>
       </c>
@@ -5661,7 +5673,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:9" ht="15">
       <c r="B149" s="10">
         <v>8367</v>
       </c>
@@ -5687,7 +5699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:9" ht="15">
       <c r="B150" s="10">
         <v>8375</v>
       </c>
@@ -5713,7 +5725,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:9" ht="15">
       <c r="B151" s="10">
         <v>8376</v>
       </c>
@@ -5739,7 +5751,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:9" ht="15">
       <c r="B152" s="10">
         <v>8376</v>
       </c>
@@ -5765,7 +5777,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:9" ht="15">
       <c r="B153" s="10">
         <v>8385</v>
       </c>
@@ -5791,7 +5803,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:9" ht="15">
       <c r="B154" s="10">
         <v>8392</v>
       </c>
@@ -5817,7 +5829,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:9" ht="15">
       <c r="B155" s="10">
         <v>8402</v>
       </c>
@@ -5843,7 +5855,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:9" ht="15">
       <c r="B156" s="10">
         <v>8403</v>
       </c>
@@ -5869,7 +5881,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:9" ht="15">
       <c r="B157" s="10">
         <v>8404</v>
       </c>
@@ -5895,7 +5907,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:9" ht="15">
       <c r="B158" s="10">
         <v>8406</v>
       </c>
@@ -5921,7 +5933,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:9" ht="15">
       <c r="B159" s="10">
         <v>8414</v>
       </c>
@@ -5947,7 +5959,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:9" ht="15">
       <c r="B160" s="10">
         <v>8417</v>
       </c>
@@ -5973,7 +5985,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:9" ht="15">
       <c r="B161" s="10">
         <v>8418</v>
       </c>
@@ -5999,7 +6011,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:9" ht="15">
       <c r="B162" s="10">
         <v>8422</v>
       </c>
@@ -6025,7 +6037,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:9" ht="15">
       <c r="B163" s="10">
         <v>8425</v>
       </c>
@@ -6051,7 +6063,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:9" ht="15">
       <c r="B164" s="10">
         <v>8428</v>
       </c>
@@ -6077,7 +6089,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:9" ht="15">
       <c r="B165" s="10">
         <v>8429</v>
       </c>
@@ -6103,7 +6115,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:9" ht="15">
       <c r="B166" s="10">
         <v>8431</v>
       </c>
@@ -6129,7 +6141,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:9" ht="15">
       <c r="B167" s="10">
         <v>8433</v>
       </c>
@@ -6155,7 +6167,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:9" ht="15">
       <c r="B168" s="10">
         <v>8436</v>
       </c>
@@ -6181,7 +6193,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:9" ht="15">
       <c r="B169" s="10">
         <v>8441</v>
       </c>
@@ -6207,7 +6219,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:9" ht="15">
       <c r="B170" s="10">
         <v>8442</v>
       </c>
@@ -6233,7 +6245,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:9" ht="15">
       <c r="B171" s="10">
         <v>8446</v>
       </c>
@@ -6259,7 +6271,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:9" ht="15">
       <c r="B172" s="10">
         <v>8447</v>
       </c>
@@ -6285,7 +6297,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:9" ht="15">
       <c r="B173" s="10">
         <v>8448</v>
       </c>
@@ -6311,7 +6323,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:9" ht="15">
       <c r="B174" s="10">
         <v>8451</v>
       </c>
@@ -6337,7 +6349,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:9" ht="15">
       <c r="B175" s="10">
         <v>8455</v>
       </c>
@@ -6363,7 +6375,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:9" ht="15">
       <c r="B176" s="10">
         <v>8463</v>
       </c>
@@ -6389,7 +6401,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:9" ht="15">
       <c r="B177" s="10">
         <v>8464</v>
       </c>
@@ -6415,7 +6427,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:9" ht="15">
       <c r="B178" s="10">
         <v>8471</v>
       </c>
@@ -6441,7 +6453,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:9" ht="15">
       <c r="B179" s="10">
         <v>8474</v>
       </c>
@@ -6467,7 +6479,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:9" ht="15">
       <c r="B180" s="10">
         <v>8479</v>
       </c>
@@ -6493,7 +6505,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:9" ht="15">
       <c r="B181" s="10">
         <v>8483</v>
       </c>
@@ -6519,7 +6531,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:9" ht="15">
       <c r="B182" s="10">
         <v>8486</v>
       </c>
@@ -6545,7 +6557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:9" ht="15">
       <c r="B183" s="10">
         <v>8487</v>
       </c>
@@ -6571,7 +6583,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:9" ht="15">
       <c r="B184" s="10">
         <v>8488</v>
       </c>
@@ -6597,7 +6609,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:9" ht="15">
       <c r="B185" s="10">
         <v>8489</v>
       </c>
@@ -6623,7 +6635,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:9" ht="15">
       <c r="B186" s="10">
         <v>8490</v>
       </c>
@@ -6649,7 +6661,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:9" ht="15">
       <c r="B187" s="10">
         <v>8492</v>
       </c>
@@ -6675,7 +6687,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:9" ht="15">
       <c r="B188" s="10">
         <v>8497</v>
       </c>
@@ -6701,7 +6713,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:9" ht="15">
       <c r="B189" s="10">
         <v>8497</v>
       </c>
@@ -6727,7 +6739,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:9" ht="15">
       <c r="B190" s="10">
         <v>8498</v>
       </c>
@@ -6753,7 +6765,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="191" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:9" ht="15">
       <c r="B191" s="10">
         <v>8501</v>
       </c>
@@ -6779,7 +6791,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="192" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:9" ht="15">
       <c r="B192" s="10">
         <v>8504</v>
       </c>
@@ -6805,7 +6817,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="193" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:9" ht="15">
       <c r="B193" s="10">
         <v>8505</v>
       </c>
@@ -6831,7 +6843,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="194" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:9" ht="15">
       <c r="B194" s="10">
         <v>8506</v>
       </c>
@@ -6857,7 +6869,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="195" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:9" ht="15">
       <c r="B195" s="10">
         <v>8507</v>
       </c>
@@ -6883,7 +6895,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="196" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:9" ht="15">
       <c r="B196" s="10">
         <v>8509</v>
       </c>
@@ -6909,7 +6921,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="197" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:9" ht="15">
       <c r="B197" s="10">
         <v>8510</v>
       </c>
@@ -6935,7 +6947,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="198" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:9" ht="15">
       <c r="B198" s="10">
         <v>8512</v>
       </c>
@@ -6961,7 +6973,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="199" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:9" ht="15">
       <c r="B199" s="10">
         <v>8512</v>
       </c>
@@ -6987,7 +6999,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="200" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:9" ht="15">
       <c r="B200" s="10">
         <v>8517</v>
       </c>
@@ -7013,7 +7025,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="201" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:9" ht="15">
       <c r="B201" s="10">
         <v>8518</v>
       </c>
@@ -7039,7 +7051,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="202" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:9" ht="15">
       <c r="B202" s="10">
         <v>8522</v>
       </c>
@@ -7065,7 +7077,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="203" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:9" ht="15">
       <c r="B203" s="10">
         <v>8533</v>
       </c>
@@ -7091,7 +7103,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="204" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:9" ht="15">
       <c r="B204" s="10">
         <v>8541</v>
       </c>
@@ -7117,7 +7129,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="205" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:9" ht="15">
       <c r="B205" s="10">
         <v>8542</v>
       </c>
@@ -7143,7 +7155,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="206" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:9" ht="15">
       <c r="B206" s="10">
         <v>8543</v>
       </c>
@@ -7169,7 +7181,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="207" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:9" ht="15">
       <c r="B207" s="10">
         <v>8544</v>
       </c>
@@ -7195,7 +7207,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="208" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:9" ht="15">
       <c r="B208" s="10">
         <v>8545</v>
       </c>
@@ -7221,7 +7233,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="209" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:9" ht="15">
       <c r="B209" s="10">
         <v>8545</v>
       </c>
@@ -7247,7 +7259,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="210" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:9" ht="15">
       <c r="B210" s="10">
         <v>8561</v>
       </c>
@@ -7273,7 +7285,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="211" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:9" ht="15">
       <c r="B211" s="10">
         <v>8561</v>
       </c>
@@ -7299,7 +7311,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:9" ht="15">
       <c r="B212" s="10">
         <v>8562</v>
       </c>
@@ -7325,7 +7337,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="213" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:9" ht="15">
       <c r="B213" s="10">
         <v>8562</v>
       </c>
@@ -7351,7 +7363,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="214" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:9" ht="15">
       <c r="B214" s="10">
         <v>8563</v>
       </c>
@@ -7377,7 +7389,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="215" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:9" ht="15">
       <c r="B215" s="10">
         <v>8563</v>
       </c>
@@ -7403,7 +7415,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="216" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:9" ht="15">
       <c r="B216" s="10">
         <v>8565</v>
       </c>
@@ -7429,7 +7441,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="217" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:9" ht="15">
       <c r="B217" s="10">
         <v>8566</v>
       </c>
@@ -7455,7 +7467,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="218" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:9" ht="15">
       <c r="B218" s="10">
         <v>8567</v>
       </c>
@@ -7481,7 +7493,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="219" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:9" ht="15">
       <c r="B219" s="10">
         <v>8568</v>
       </c>
@@ -7507,7 +7519,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="220" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:9" ht="15">
       <c r="B220" s="10">
         <v>8571</v>
       </c>
@@ -7533,7 +7545,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="221" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:9" ht="15">
       <c r="B221" s="10">
         <v>8572</v>
       </c>
@@ -7559,7 +7571,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="222" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:9" ht="15">
       <c r="B222" s="10">
         <v>8574</v>
       </c>
@@ -7585,7 +7597,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="223" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:9" ht="15">
       <c r="B223" s="10">
         <v>8576</v>
       </c>
@@ -7611,7 +7623,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="224" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:9" ht="15">
       <c r="B224" s="10">
         <v>8577</v>
       </c>
@@ -7637,7 +7649,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="225" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:9" ht="15">
       <c r="B225" s="10">
         <v>8578</v>
       </c>
@@ -7663,7 +7675,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:9" ht="15">
       <c r="B226" s="10">
         <v>8586</v>
       </c>
@@ -7689,7 +7701,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="227" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:9" ht="15">
       <c r="B227" s="10">
         <v>8606</v>
       </c>
@@ -7715,7 +7727,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="228" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:9" ht="15">
       <c r="B228" s="10">
         <v>8611</v>
       </c>
@@ -7741,7 +7753,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="229" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:9" ht="15">
       <c r="B229" s="10">
         <v>8612</v>
       </c>
@@ -7767,7 +7779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:9" ht="15">
       <c r="B230" s="10">
         <v>8641</v>
       </c>
@@ -7793,7 +7805,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="231" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:9" ht="15">
       <c r="B231" s="10">
         <v>8642</v>
       </c>
@@ -7819,7 +7831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:9" ht="15">
       <c r="B232" s="10">
         <v>8657</v>
       </c>
@@ -7845,7 +7857,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="233" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:9" ht="15">
       <c r="B233" s="10">
         <v>8658</v>
       </c>
@@ -7871,7 +7883,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="234" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:9" ht="15">
       <c r="B234" s="10">
         <v>8659</v>
       </c>
@@ -7897,7 +7909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:9" ht="15">
       <c r="B235" s="10">
         <v>8660</v>
       </c>
@@ -7923,7 +7935,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="236" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:9" ht="15">
       <c r="B236" s="10">
         <v>8681</v>
       </c>
@@ -7949,7 +7961,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="237" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:9" ht="15">
       <c r="B237" s="10">
         <v>8681</v>
       </c>
@@ -7975,7 +7987,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="238" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:9" ht="15">
       <c r="B238" s="10">
         <v>8682</v>
       </c>
@@ -8001,7 +8013,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="239" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:9" ht="15">
       <c r="B239" s="10">
         <v>8682</v>
       </c>
@@ -8027,7 +8039,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="240" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:9" ht="15">
       <c r="B240" s="10">
         <v>8683</v>
       </c>
@@ -8053,7 +8065,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="241" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:9" ht="15">
       <c r="B241" s="10">
         <v>8684</v>
       </c>
@@ -8094,23 +8106,23 @@
       <selection activeCell="A2" sqref="A2:M234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.08203125" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.58203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8151,7 +8163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" s="13">
         <v>381</v>
       </c>
@@ -8192,7 +8204,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="13">
         <v>382</v>
       </c>
@@ -8233,7 +8245,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="13">
         <v>810</v>
       </c>
@@ -8274,7 +8286,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="13">
         <v>815</v>
       </c>
@@ -8315,7 +8327,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="13">
         <v>819</v>
       </c>
@@ -8356,7 +8368,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="13">
         <v>820</v>
       </c>
@@ -8397,7 +8409,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="13">
         <v>821</v>
       </c>
@@ -8438,7 +8450,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="13">
         <v>822</v>
       </c>
@@ -8479,7 +8491,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="13">
         <v>833</v>
       </c>
@@ -8520,7 +8532,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="13">
         <v>835</v>
       </c>
@@ -8561,7 +8573,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="13">
         <v>836</v>
       </c>
@@ -8602,7 +8614,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="13">
         <v>839</v>
       </c>
@@ -8643,7 +8655,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="13">
         <v>840</v>
       </c>
@@ -8684,7 +8696,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="13">
         <v>847</v>
       </c>
@@ -8725,7 +8737,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="13">
         <v>847</v>
       </c>
@@ -8766,7 +8778,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15">
       <c r="A17" s="13">
         <v>848</v>
       </c>
@@ -8807,7 +8819,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15">
       <c r="A18" s="13">
         <v>848</v>
       </c>
@@ -8848,7 +8860,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15">
       <c r="A19" s="13">
         <v>851</v>
       </c>
@@ -8889,7 +8901,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15">
       <c r="A20" s="13">
         <v>851</v>
       </c>
@@ -8930,7 +8942,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15">
       <c r="A21" s="13">
         <v>852</v>
       </c>
@@ -8971,7 +8983,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15">
       <c r="A22" s="13">
         <v>853</v>
       </c>
@@ -9012,7 +9024,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="9" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" s="9" customFormat="1" ht="15">
       <c r="A23" s="13">
         <v>854</v>
       </c>
@@ -9053,7 +9065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15">
       <c r="A24" s="13">
         <v>865</v>
       </c>
@@ -9094,7 +9106,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15">
       <c r="A25" s="13">
         <v>866</v>
       </c>
@@ -9135,7 +9147,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="15">
       <c r="A26" s="13">
         <v>867</v>
       </c>
@@ -9176,7 +9188,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="15">
       <c r="A27" s="13">
         <v>867</v>
       </c>
@@ -9217,7 +9229,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="15">
       <c r="A28" s="13">
         <v>873</v>
       </c>
@@ -9258,7 +9270,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="15">
       <c r="A29" s="13">
         <v>873</v>
       </c>
@@ -9299,7 +9311,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="15">
       <c r="A30" s="13">
         <v>874</v>
       </c>
@@ -9340,7 +9352,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15">
       <c r="A31" s="13">
         <v>874</v>
       </c>
@@ -9381,7 +9393,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15">
       <c r="A32" s="13">
         <v>876</v>
       </c>
@@ -9422,7 +9434,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15">
       <c r="A33" s="13">
         <v>876</v>
       </c>
@@ -9463,7 +9475,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="13">
         <v>878</v>
       </c>
@@ -9504,7 +9516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="15">
       <c r="A35" s="13">
         <v>879</v>
       </c>
@@ -9545,7 +9557,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="15">
       <c r="A36" s="13">
         <v>880</v>
       </c>
@@ -9586,7 +9598,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="15">
       <c r="A37" s="13">
         <v>881</v>
       </c>
@@ -9627,7 +9639,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="15">
       <c r="A38" s="13">
         <v>882</v>
       </c>
@@ -9668,7 +9680,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="15">
       <c r="A39" s="13">
         <v>887</v>
       </c>
@@ -9709,7 +9721,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15">
       <c r="A40" s="13">
         <v>888</v>
       </c>
@@ -9750,7 +9762,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="15">
       <c r="A41" s="13">
         <v>891</v>
       </c>
@@ -9791,7 +9803,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="15">
       <c r="A42" s="13">
         <v>898</v>
       </c>
@@ -9832,7 +9844,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="15">
       <c r="A43" s="13">
         <v>8016</v>
       </c>
@@ -9873,7 +9885,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="15">
       <c r="A44" s="13">
         <v>8017</v>
       </c>
@@ -9914,7 +9926,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="15">
       <c r="A45" s="13">
         <v>8018</v>
       </c>
@@ -9955,7 +9967,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="15">
       <c r="A46" s="13">
         <v>8019</v>
       </c>
@@ -9996,7 +10008,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="15">
       <c r="A47" s="13">
         <v>8020</v>
       </c>
@@ -10037,7 +10049,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="15">
       <c r="A48" s="13">
         <v>8021</v>
       </c>
@@ -10078,7 +10090,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="15">
       <c r="A49" s="13">
         <v>8029</v>
       </c>
@@ -10119,7 +10131,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="15">
       <c r="A50" s="13">
         <v>8029</v>
       </c>
@@ -10160,7 +10172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="15">
       <c r="A51" s="13">
         <v>8030</v>
       </c>
@@ -10201,7 +10213,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="15">
       <c r="A52" s="13">
         <v>8033</v>
       </c>
@@ -10242,7 +10254,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="15">
       <c r="A53" s="13">
         <v>8034</v>
       </c>
@@ -10283,7 +10295,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="15">
       <c r="A54" s="13">
         <v>8036</v>
       </c>
@@ -10324,7 +10336,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="15">
       <c r="A55" s="13">
         <v>8046</v>
       </c>
@@ -10365,7 +10377,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="15">
       <c r="A56" s="13">
         <v>8046</v>
       </c>
@@ -10406,7 +10418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="15">
       <c r="A57" s="13">
         <v>8046</v>
       </c>
@@ -10447,7 +10459,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="15">
       <c r="A58" s="13">
         <v>8049</v>
       </c>
@@ -10488,7 +10500,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="15">
       <c r="A59" s="13">
         <v>8053</v>
       </c>
@@ -10529,7 +10541,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="15">
       <c r="A60" s="13">
         <v>8056</v>
       </c>
@@ -10570,7 +10582,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="15">
       <c r="A61" s="13">
         <v>8060</v>
       </c>
@@ -10611,7 +10623,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="15">
       <c r="A62" s="13">
         <v>8062</v>
       </c>
@@ -10652,7 +10664,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="15">
       <c r="A63" s="13">
         <v>8067</v>
       </c>
@@ -10693,7 +10705,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="15">
       <c r="A64" s="13">
         <v>8068</v>
       </c>
@@ -10734,7 +10746,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="15">
       <c r="A65" s="13">
         <v>8076</v>
       </c>
@@ -10775,7 +10787,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" ht="15">
       <c r="A66" s="13">
         <v>8076</v>
       </c>
@@ -10816,7 +10828,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" ht="15">
       <c r="A67" s="13">
         <v>8079</v>
       </c>
@@ -10857,7 +10869,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="15">
       <c r="A68" s="13">
         <v>8080</v>
       </c>
@@ -10898,7 +10910,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="15">
       <c r="A69" s="13">
         <v>8080</v>
       </c>
@@ -10939,7 +10951,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="15">
       <c r="A70" s="13">
         <v>8082</v>
       </c>
@@ -10980,7 +10992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" ht="15">
       <c r="A71" s="13">
         <v>8093</v>
       </c>
@@ -11021,7 +11033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" ht="15">
       <c r="A72" s="13">
         <v>8094</v>
       </c>
@@ -11062,7 +11074,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" ht="15">
       <c r="A73" s="13">
         <v>8105</v>
       </c>
@@ -11103,7 +11115,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" ht="15">
       <c r="A74" s="13">
         <v>8105</v>
       </c>
@@ -11144,7 +11156,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" ht="15">
       <c r="A75" s="13">
         <v>8106</v>
       </c>
@@ -11185,7 +11197,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" ht="15">
       <c r="A76" s="13">
         <v>8107</v>
       </c>
@@ -11226,7 +11238,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" ht="15">
       <c r="A77" s="13">
         <v>8108</v>
       </c>
@@ -11267,7 +11279,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" ht="15">
       <c r="A78" s="13">
         <v>8113</v>
       </c>
@@ -11308,7 +11320,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" ht="15">
       <c r="A79" s="13">
         <v>8114</v>
       </c>
@@ -11349,7 +11361,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" ht="15">
       <c r="A80" s="13">
         <v>8116</v>
       </c>
@@ -11390,7 +11402,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" ht="15">
       <c r="A81" s="13">
         <v>8117</v>
       </c>
@@ -11431,7 +11443,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" ht="15">
       <c r="A82" s="13">
         <v>8118</v>
       </c>
@@ -11472,7 +11484,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" ht="15">
       <c r="A83" s="13">
         <v>8119</v>
       </c>
@@ -11513,7 +11525,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" ht="15">
       <c r="A84" s="13">
         <v>8120</v>
       </c>
@@ -11554,7 +11566,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" ht="15">
       <c r="A85" s="13">
         <v>8124</v>
       </c>
@@ -11595,7 +11607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" ht="15">
       <c r="A86" s="13">
         <v>8125</v>
       </c>
@@ -11636,7 +11648,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" ht="15">
       <c r="A87" s="13">
         <v>8132</v>
       </c>
@@ -11677,7 +11689,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" ht="15">
       <c r="A88" s="13">
         <v>8134</v>
       </c>
@@ -11718,7 +11730,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" ht="15">
       <c r="A89" s="13">
         <v>8135</v>
       </c>
@@ -11759,7 +11771,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" ht="15">
       <c r="A90" s="13">
         <v>8136</v>
       </c>
@@ -11800,7 +11812,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" ht="15">
       <c r="A91" s="13">
         <v>8137</v>
       </c>
@@ -11841,7 +11853,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" ht="15">
       <c r="A92" s="13">
         <v>8138</v>
       </c>
@@ -11882,7 +11894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" ht="15">
       <c r="A93" s="13">
         <v>8139</v>
       </c>
@@ -11923,7 +11935,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" ht="15">
       <c r="A94" s="13">
         <v>8140</v>
       </c>
@@ -11964,7 +11976,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" ht="15">
       <c r="A95" s="13">
         <v>8140</v>
       </c>
@@ -12005,7 +12017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" ht="15">
       <c r="A96" s="13">
         <v>8155</v>
       </c>
@@ -12046,7 +12058,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" ht="15">
       <c r="A97" s="13">
         <v>8156</v>
       </c>
@@ -12087,7 +12099,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" ht="15">
       <c r="A98" s="13">
         <v>8157</v>
       </c>
@@ -12128,7 +12140,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" ht="15">
       <c r="A99" s="13">
         <v>8158</v>
       </c>
@@ -12169,7 +12181,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" ht="15">
       <c r="A100" s="13">
         <v>8159</v>
       </c>
@@ -12210,7 +12222,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" ht="15">
       <c r="A101" s="13">
         <v>8159</v>
       </c>
@@ -12251,7 +12263,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" ht="15">
       <c r="A102" s="13">
         <v>8159</v>
       </c>
@@ -12292,7 +12304,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" ht="15">
       <c r="A103" s="13">
         <v>8160</v>
       </c>
@@ -12333,7 +12345,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" ht="15">
       <c r="A104" s="13">
         <v>8162</v>
       </c>
@@ -12374,7 +12386,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" ht="15">
       <c r="A105" s="13">
         <v>8165</v>
       </c>
@@ -12415,7 +12427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" ht="15">
       <c r="A106" s="13">
         <v>8166</v>
       </c>
@@ -12456,7 +12468,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" ht="15">
       <c r="A107" s="13">
         <v>8169</v>
       </c>
@@ -12497,7 +12509,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" ht="15">
       <c r="A108" s="13">
         <v>8170</v>
       </c>
@@ -12538,7 +12550,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" ht="15">
       <c r="A109" s="13">
         <v>8172</v>
       </c>
@@ -12579,7 +12591,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" ht="15">
       <c r="A110" s="13">
         <v>8172</v>
       </c>
@@ -12620,7 +12632,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" ht="15">
       <c r="A111" s="13">
         <v>8183</v>
       </c>
@@ -12661,7 +12673,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" ht="15">
       <c r="A112" s="13">
         <v>8186</v>
       </c>
@@ -12702,7 +12714,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" ht="15">
       <c r="A113" s="13">
         <v>8186</v>
       </c>
@@ -12743,7 +12755,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" ht="15">
       <c r="A114" s="13">
         <v>8191</v>
       </c>
@@ -12784,7 +12796,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" ht="15">
       <c r="A115" s="13">
         <v>8206</v>
       </c>
@@ -12825,7 +12837,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" ht="15">
       <c r="A116" s="13">
         <v>8208</v>
       </c>
@@ -12866,7 +12878,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" ht="15">
       <c r="A117" s="13">
         <v>8208</v>
       </c>
@@ -12907,7 +12919,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" ht="15">
       <c r="A118" s="13">
         <v>8209</v>
       </c>
@@ -12948,7 +12960,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" ht="15">
       <c r="A119" s="13">
         <v>8210</v>
       </c>
@@ -12989,7 +13001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" ht="15">
       <c r="A120" s="13">
         <v>8218</v>
       </c>
@@ -13030,7 +13042,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" ht="15">
       <c r="A121" s="13">
         <v>8226</v>
       </c>
@@ -13071,7 +13083,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" ht="15">
       <c r="A122" s="13">
         <v>8233</v>
       </c>
@@ -13112,7 +13124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" ht="15">
       <c r="A123" s="13">
         <v>8233</v>
       </c>
@@ -13153,7 +13165,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" ht="15">
       <c r="A124" s="13">
         <v>8246</v>
       </c>
@@ -13194,7 +13206,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" ht="15">
       <c r="A125" s="13">
         <v>8247</v>
       </c>
@@ -13235,7 +13247,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" ht="15">
       <c r="A126" s="13">
         <v>8248</v>
       </c>
@@ -13276,7 +13288,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" ht="15">
       <c r="A127" s="13">
         <v>8249</v>
       </c>
@@ -13317,7 +13329,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" ht="15">
       <c r="A128" s="13">
         <v>8250</v>
       </c>
@@ -13358,7 +13370,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" ht="15">
       <c r="A129" s="13">
         <v>8254</v>
       </c>
@@ -13399,7 +13411,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" ht="15">
       <c r="A130" s="13">
         <v>8269</v>
       </c>
@@ -13440,7 +13452,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" ht="15">
       <c r="A131" s="13">
         <v>8270</v>
       </c>
@@ -13481,7 +13493,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" ht="15">
       <c r="A132" s="13">
         <v>8270</v>
       </c>
@@ -13522,7 +13534,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" ht="15">
       <c r="A133" s="13">
         <v>8276</v>
       </c>
@@ -13563,7 +13575,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" ht="15">
       <c r="A134" s="13">
         <v>8278</v>
       </c>
@@ -13604,7 +13616,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" ht="15">
       <c r="A135" s="13">
         <v>8288</v>
       </c>
@@ -13645,7 +13657,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" ht="15">
       <c r="A136" s="13">
         <v>8296</v>
       </c>
@@ -13686,7 +13698,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" ht="15">
       <c r="A137" s="13">
         <v>8302</v>
       </c>
@@ -13727,7 +13739,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" ht="15">
       <c r="A138" s="13">
         <v>8305</v>
       </c>
@@ -13768,7 +13780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" ht="15">
       <c r="A139" s="13">
         <v>8307</v>
       </c>
@@ -13809,7 +13821,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" ht="15">
       <c r="A140" s="13">
         <v>8308</v>
       </c>
@@ -13850,7 +13862,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" ht="15">
       <c r="A141" s="13">
         <v>8317</v>
       </c>
@@ -13891,7 +13903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" ht="15">
       <c r="A142" s="13">
         <v>8318</v>
       </c>
@@ -13932,7 +13944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" ht="15">
       <c r="A143" s="13">
         <v>8322</v>
       </c>
@@ -13973,7 +13985,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" ht="15">
       <c r="A144" s="13">
         <v>8324</v>
       </c>
@@ -14014,7 +14026,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" ht="15">
       <c r="A145" s="13">
         <v>8326</v>
       </c>
@@ -14055,7 +14067,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" ht="15">
       <c r="A146" s="13">
         <v>8329</v>
       </c>
@@ -14096,7 +14108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" ht="15">
       <c r="A147" s="13">
         <v>8330</v>
       </c>
@@ -14137,7 +14149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" ht="15">
       <c r="A148" s="13">
         <v>8334</v>
       </c>
@@ -14178,7 +14190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" ht="15">
       <c r="A149" s="13">
         <v>8337</v>
       </c>
@@ -14219,7 +14231,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" ht="15">
       <c r="A150" s="13">
         <v>8338</v>
       </c>
@@ -14260,7 +14272,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" ht="15">
       <c r="A151" s="13">
         <v>8340</v>
       </c>
@@ -14301,7 +14313,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" ht="15">
       <c r="A152" s="13">
         <v>8341</v>
       </c>
@@ -14342,7 +14354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" ht="15">
       <c r="A153" s="13">
         <v>8344</v>
       </c>
@@ -14383,7 +14395,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" ht="15">
       <c r="A154" s="13">
         <v>8347</v>
       </c>
@@ -14424,7 +14436,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" ht="15">
       <c r="A155" s="13">
         <v>8348</v>
       </c>
@@ -14465,7 +14477,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" ht="15">
       <c r="A156" s="13">
         <v>8359</v>
       </c>
@@ -14506,7 +14518,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" ht="15">
       <c r="A157" s="13">
         <v>8360</v>
       </c>
@@ -14547,7 +14559,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" ht="15">
       <c r="A158" s="13">
         <v>8368</v>
       </c>
@@ -14588,7 +14600,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" ht="15">
       <c r="A159" s="13">
         <v>8368</v>
       </c>
@@ -14629,7 +14641,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" ht="15">
       <c r="A160" s="13">
         <v>8375</v>
       </c>
@@ -14670,7 +14682,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" ht="15">
       <c r="A161" s="13">
         <v>8376</v>
       </c>
@@ -14711,7 +14723,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" ht="15">
       <c r="A162" s="13">
         <v>8386</v>
       </c>
@@ -14752,7 +14764,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" ht="15">
       <c r="A163" s="13">
         <v>8391</v>
       </c>
@@ -14793,7 +14805,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" ht="15">
       <c r="A164" s="13">
         <v>8392</v>
       </c>
@@ -14834,7 +14846,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" ht="15">
       <c r="A165" s="13">
         <v>8394</v>
       </c>
@@ -14875,7 +14887,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" ht="15">
       <c r="A166" s="13">
         <v>8401</v>
       </c>
@@ -14916,7 +14928,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" ht="15">
       <c r="A167" s="13">
         <v>8402</v>
       </c>
@@ -14957,7 +14969,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" ht="15">
       <c r="A168" s="13">
         <v>8404</v>
       </c>
@@ -14998,7 +15010,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" ht="15">
       <c r="A169" s="13">
         <v>8405</v>
       </c>
@@ -15039,7 +15051,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" ht="15">
       <c r="A170" s="13">
         <v>8406</v>
       </c>
@@ -15080,7 +15092,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" ht="15">
       <c r="A171" s="13">
         <v>8408</v>
       </c>
@@ -15121,7 +15133,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" ht="15">
       <c r="A172" s="13">
         <v>8416</v>
       </c>
@@ -15162,7 +15174,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" ht="15">
       <c r="A173" s="13">
         <v>8420</v>
       </c>
@@ -15203,7 +15215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" ht="15">
       <c r="A174" s="13">
         <v>8421</v>
       </c>
@@ -15244,7 +15256,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" ht="15">
       <c r="A175" s="13">
         <v>8426</v>
       </c>
@@ -15285,7 +15297,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" ht="15">
       <c r="A176" s="13">
         <v>8427</v>
       </c>
@@ -15326,7 +15338,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" ht="15">
       <c r="A177" s="13">
         <v>8428</v>
       </c>
@@ -15367,7 +15379,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" ht="15">
       <c r="A178" s="13">
         <v>8429</v>
       </c>
@@ -15408,7 +15420,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" ht="15">
       <c r="A179" s="13">
         <v>8430</v>
       </c>
@@ -15449,7 +15461,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" ht="15">
       <c r="A180" s="13">
         <v>8431</v>
       </c>
@@ -15490,7 +15502,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" ht="15">
       <c r="A181" s="13">
         <v>8432</v>
       </c>
@@ -15531,7 +15543,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" ht="15">
       <c r="A182" s="13">
         <v>8432</v>
       </c>
@@ -15572,7 +15584,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" ht="15">
       <c r="A183" s="13">
         <v>8434</v>
       </c>
@@ -15613,7 +15625,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" ht="15">
       <c r="A184" s="13">
         <v>8435</v>
       </c>
@@ -15654,7 +15666,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" ht="15">
       <c r="A185" s="13">
         <v>8436</v>
       </c>
@@ -15695,7 +15707,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" ht="15">
       <c r="A186" s="13">
         <v>8439</v>
       </c>
@@ -15736,7 +15748,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" ht="15">
       <c r="A187" s="13">
         <v>8440</v>
       </c>
@@ -15777,7 +15789,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" ht="15">
       <c r="A188" s="13">
         <v>8442</v>
       </c>
@@ -15818,7 +15830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" ht="15">
       <c r="A189" s="13">
         <v>8445</v>
       </c>
@@ -15859,7 +15871,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" ht="15">
       <c r="A190" s="13">
         <v>8446</v>
       </c>
@@ -15900,7 +15912,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" ht="15">
       <c r="A191" s="13">
         <v>8447</v>
       </c>
@@ -15941,7 +15953,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" ht="15">
       <c r="A192" s="13">
         <v>8451</v>
       </c>
@@ -15982,7 +15994,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" ht="15">
       <c r="A193" s="13">
         <v>8452</v>
       </c>
@@ -16023,7 +16035,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" ht="15">
       <c r="A194" s="13">
         <v>8452</v>
       </c>
@@ -16064,7 +16076,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" ht="15">
       <c r="A195" s="13">
         <v>8454</v>
       </c>
@@ -16105,7 +16117,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" ht="15">
       <c r="A196" s="13">
         <v>8454</v>
       </c>
@@ -16146,7 +16158,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" ht="15">
       <c r="A197" s="13">
         <v>8456</v>
       </c>
@@ -16187,7 +16199,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" ht="15">
       <c r="A198" s="13">
         <v>8460</v>
       </c>
@@ -16228,7 +16240,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" ht="15">
       <c r="A199" s="13">
         <v>8464</v>
       </c>
@@ -16269,7 +16281,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" ht="15">
       <c r="A200" s="13">
         <v>8469</v>
       </c>
@@ -16310,7 +16322,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" ht="15">
       <c r="A201" s="13">
         <v>8473</v>
       </c>
@@ -16351,7 +16363,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" ht="15">
       <c r="A202" s="13">
         <v>8480</v>
       </c>
@@ -16392,7 +16404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" ht="15">
       <c r="A203" s="13">
         <v>8488</v>
       </c>
@@ -16433,7 +16445,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" ht="15">
       <c r="A204" s="13">
         <v>8502</v>
       </c>
@@ -16474,7 +16486,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" ht="15">
       <c r="A205" s="13">
         <v>8503</v>
       </c>
@@ -16515,7 +16527,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" ht="15">
       <c r="A206" s="13">
         <v>8505</v>
       </c>
@@ -16556,7 +16568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" ht="15">
       <c r="A207" s="13">
         <v>8508</v>
       </c>
@@ -16597,7 +16609,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" ht="15">
       <c r="A208" s="13">
         <v>8511</v>
       </c>
@@ -16638,7 +16650,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" ht="15">
       <c r="A209" s="13">
         <v>8517</v>
       </c>
@@ -16679,7 +16691,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" ht="15">
       <c r="A210" s="13">
         <v>8521</v>
       </c>
@@ -16720,7 +16732,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" ht="15">
       <c r="A211" s="13">
         <v>8534</v>
       </c>
@@ -16761,7 +16773,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" ht="15">
       <c r="A212" s="13">
         <v>8534</v>
       </c>
@@ -16802,7 +16814,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" ht="15" customHeight="1">
       <c r="A213" s="13">
         <v>8534</v>
       </c>
@@ -16843,7 +16855,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" ht="15" customHeight="1">
       <c r="A214" s="13">
         <v>8536</v>
       </c>
@@ -16884,7 +16896,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" ht="15">
       <c r="A215" s="13">
         <v>8542</v>
       </c>
@@ -16925,7 +16937,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" ht="15">
       <c r="A216" s="13">
         <v>8546</v>
       </c>
@@ -16966,7 +16978,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" ht="15">
       <c r="A217" s="13">
         <v>8561</v>
       </c>
@@ -17007,7 +17019,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" ht="15">
       <c r="A218" s="13">
         <v>8562</v>
       </c>
@@ -17048,7 +17060,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" ht="15">
       <c r="A219" s="13">
         <v>8562</v>
       </c>
@@ -17089,7 +17101,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" ht="15">
       <c r="A220" s="13">
         <v>8564</v>
       </c>
@@ -17130,7 +17142,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" ht="15">
       <c r="A221" s="13">
         <v>8564</v>
       </c>
@@ -17171,7 +17183,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" ht="15">
       <c r="A222" s="13">
         <v>8566</v>
       </c>
@@ -17212,7 +17224,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" ht="15">
       <c r="A223" s="13">
         <v>8568</v>
       </c>
@@ -17253,7 +17265,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" ht="15">
       <c r="A224" s="13">
         <v>8572</v>
       </c>
@@ -17294,7 +17306,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" ht="15">
       <c r="A225" s="13">
         <v>8573</v>
       </c>
@@ -17335,7 +17347,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" ht="15">
       <c r="A226" s="13">
         <v>8575</v>
       </c>
@@ -17376,7 +17388,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" ht="15">
       <c r="A227" s="13">
         <v>8584</v>
       </c>
@@ -17417,7 +17429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" ht="15">
       <c r="A228" s="13">
         <v>8585</v>
       </c>
@@ -17458,7 +17470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" ht="15">
       <c r="A229" s="13">
         <v>8586</v>
       </c>
@@ -17499,7 +17511,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" ht="15">
       <c r="A230" s="13">
         <v>8611</v>
       </c>
@@ -17540,7 +17552,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" ht="15">
       <c r="A231" s="13">
         <v>8642</v>
       </c>
@@ -17581,7 +17593,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" ht="15">
       <c r="A232" s="13">
         <v>8642</v>
       </c>
@@ -17622,7 +17634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" ht="15">
       <c r="A233" s="13">
         <v>8657</v>
       </c>
@@ -17663,7 +17675,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" ht="15">
       <c r="A234" s="13">
         <v>8658</v>
       </c>
@@ -17719,19 +17731,19 @@
       <selection activeCell="A3" sqref="A3:K415"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.08203125" style="2"/>
+    <col min="4" max="4" width="6.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="2"/>
     <col min="9" max="10" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -17766,7 +17778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>810</v>
       </c>
@@ -17795,7 +17807,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>815</v>
       </c>
@@ -17824,7 +17836,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>816</v>
       </c>
@@ -17853,7 +17865,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>817</v>
       </c>
@@ -17882,7 +17894,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>818</v>
       </c>
@@ -17911,7 +17923,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>819</v>
       </c>
@@ -17940,7 +17952,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>820</v>
       </c>
@@ -17969,7 +17981,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>821</v>
       </c>
@@ -17998,7 +18010,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>822</v>
       </c>
@@ -18027,7 +18039,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>833</v>
       </c>
@@ -18056,7 +18068,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>833</v>
       </c>
@@ -18085,7 +18097,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>834</v>
       </c>
@@ -18114,7 +18126,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>835</v>
       </c>
@@ -18143,7 +18155,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>836</v>
       </c>
@@ -18172,7 +18184,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>839</v>
       </c>
@@ -18201,7 +18213,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>840</v>
       </c>
@@ -18230,7 +18242,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>841</v>
       </c>
@@ -18259,7 +18271,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>841</v>
       </c>
@@ -18288,7 +18300,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>847</v>
       </c>
@@ -18317,7 +18329,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>847</v>
       </c>
@@ -18346,7 +18358,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>848</v>
       </c>
@@ -18375,7 +18387,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>848</v>
       </c>
@@ -18404,7 +18416,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>852</v>
       </c>
@@ -18433,7 +18445,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>852</v>
       </c>
@@ -18462,7 +18474,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>853</v>
       </c>
@@ -18491,7 +18503,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>854</v>
       </c>
@@ -18520,7 +18532,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>856</v>
       </c>
@@ -18549,7 +18561,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>865</v>
       </c>
@@ -18578,7 +18590,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>867</v>
       </c>
@@ -18607,7 +18619,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>867</v>
       </c>
@@ -18636,7 +18648,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>873</v>
       </c>
@@ -18665,7 +18677,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>874</v>
       </c>
@@ -18694,7 +18706,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>874</v>
       </c>
@@ -18723,7 +18735,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>876</v>
       </c>
@@ -18752,7 +18764,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>877</v>
       </c>
@@ -18781,7 +18793,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>877</v>
       </c>
@@ -18810,7 +18822,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>878</v>
       </c>
@@ -18839,7 +18851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>879</v>
       </c>
@@ -18868,7 +18880,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>880</v>
       </c>
@@ -18897,7 +18909,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>881</v>
       </c>
@@ -18926,7 +18938,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>882</v>
       </c>
@@ -18955,7 +18967,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>883</v>
       </c>
@@ -18984,7 +18996,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>884</v>
       </c>
@@ -19013,7 +19025,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>887</v>
       </c>
@@ -19042,7 +19054,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>888</v>
       </c>
@@ -19071,7 +19083,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>891</v>
       </c>
@@ -19100,7 +19112,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>898</v>
       </c>
@@ -19129,7 +19141,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>8005</v>
       </c>
@@ -19158,7 +19170,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>8015</v>
       </c>
@@ -19187,7 +19199,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>8016</v>
       </c>
@@ -19216,7 +19228,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>8016</v>
       </c>
@@ -19245,7 +19257,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>8017</v>
       </c>
@@ -19274,7 +19286,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>8018</v>
       </c>
@@ -19303,7 +19315,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>8019</v>
       </c>
@@ -19332,7 +19344,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>8020</v>
       </c>
@@ -19361,7 +19373,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>8021</v>
       </c>
@@ -19390,7 +19402,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>8021</v>
       </c>
@@ -19419,7 +19431,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>8025</v>
       </c>
@@ -19448,7 +19460,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>8025</v>
       </c>
@@ -19477,7 +19489,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>8026</v>
       </c>
@@ -19506,7 +19518,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>8026</v>
       </c>
@@ -19535,7 +19547,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>8029</v>
       </c>
@@ -19564,7 +19576,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>8029</v>
       </c>
@@ -19593,7 +19605,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>8030</v>
       </c>
@@ -19622,7 +19634,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>8030</v>
       </c>
@@ -19651,7 +19663,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>8030</v>
       </c>
@@ -19680,7 +19692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>8033</v>
       </c>
@@ -19709,7 +19721,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>8033</v>
       </c>
@@ -19738,7 +19750,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>8034</v>
       </c>
@@ -19767,7 +19779,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>8034</v>
       </c>
@@ -19796,7 +19808,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>8035</v>
       </c>
@@ -19825,7 +19837,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>8035</v>
       </c>
@@ -19854,7 +19866,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>8036</v>
       </c>
@@ -19883,7 +19895,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>8036</v>
       </c>
@@ -19912,7 +19924,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>8036</v>
       </c>
@@ -19941,7 +19953,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>8041</v>
       </c>
@@ -19970,7 +19982,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>8042</v>
       </c>
@@ -19999,7 +20011,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>8042</v>
       </c>
@@ -20028,7 +20040,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>8044</v>
       </c>
@@ -20057,7 +20069,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>8044</v>
       </c>
@@ -20086,7 +20098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>8045</v>
       </c>
@@ -20115,7 +20127,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>8046</v>
       </c>
@@ -20144,7 +20156,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>8046</v>
       </c>
@@ -20173,7 +20185,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>8046</v>
       </c>
@@ -20202,7 +20214,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>8046</v>
       </c>
@@ -20231,7 +20243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>8049</v>
       </c>
@@ -20260,7 +20272,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>8049</v>
       </c>
@@ -20289,7 +20301,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>8053</v>
       </c>
@@ -20318,7 +20330,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>8053</v>
       </c>
@@ -20347,7 +20359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>8054</v>
       </c>
@@ -20376,7 +20388,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>8054</v>
       </c>
@@ -20405,7 +20417,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>8059</v>
       </c>
@@ -20434,7 +20446,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>8060</v>
       </c>
@@ -20463,7 +20475,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>8060</v>
       </c>
@@ -20492,7 +20504,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>8061</v>
       </c>
@@ -20521,7 +20533,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>8062</v>
       </c>
@@ -20550,7 +20562,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>8062</v>
       </c>
@@ -20579,7 +20591,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>8067</v>
       </c>
@@ -20608,7 +20620,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>8067</v>
       </c>
@@ -20637,7 +20649,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>8068</v>
       </c>
@@ -20666,7 +20678,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>8070</v>
       </c>
@@ -20695,7 +20707,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>8070</v>
       </c>
@@ -20724,7 +20736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>8075</v>
       </c>
@@ -20753,7 +20765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>8076</v>
       </c>
@@ -20782,7 +20794,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>8076</v>
       </c>
@@ -20811,7 +20823,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>8079</v>
       </c>
@@ -20840,7 +20852,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>8079</v>
       </c>
@@ -20869,7 +20881,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>8080</v>
       </c>
@@ -20898,7 +20910,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>8080</v>
       </c>
@@ -20927,7 +20939,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>8080</v>
       </c>
@@ -20956,7 +20968,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>8093</v>
       </c>
@@ -20985,7 +20997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>8094</v>
       </c>
@@ -21014,7 +21026,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>8102</v>
       </c>
@@ -21043,7 +21055,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>8105</v>
       </c>
@@ -21072,7 +21084,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>8108</v>
       </c>
@@ -21101,7 +21113,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>8113</v>
       </c>
@@ -21130,7 +21142,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>8114</v>
       </c>
@@ -21159,7 +21171,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>8117</v>
       </c>
@@ -21188,7 +21200,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>8118</v>
       </c>
@@ -21217,7 +21229,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>8119</v>
       </c>
@@ -21246,7 +21258,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>8120</v>
       </c>
@@ -21275,7 +21287,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>8123</v>
       </c>
@@ -21304,7 +21316,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>8124</v>
       </c>
@@ -21333,7 +21345,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>8124</v>
       </c>
@@ -21362,7 +21374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>8126</v>
       </c>
@@ -21391,7 +21403,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>8132</v>
       </c>
@@ -21420,7 +21432,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>8133</v>
       </c>
@@ -21449,7 +21461,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>8133</v>
       </c>
@@ -21478,7 +21490,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>8133</v>
       </c>
@@ -21507,7 +21519,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>8134</v>
       </c>
@@ -21536,7 +21548,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>8135</v>
       </c>
@@ -21565,7 +21577,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>8135</v>
       </c>
@@ -21594,7 +21606,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>8135</v>
       </c>
@@ -21623,7 +21635,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>8136</v>
       </c>
@@ -21652,7 +21664,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>8136</v>
       </c>
@@ -21681,7 +21693,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>8137</v>
       </c>
@@ -21710,7 +21722,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>8137</v>
       </c>
@@ -21739,7 +21751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>8138</v>
       </c>
@@ -21768,7 +21780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>8138</v>
       </c>
@@ -21797,7 +21809,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>8139</v>
       </c>
@@ -21826,7 +21838,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>8139</v>
       </c>
@@ -21855,7 +21867,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>8140</v>
       </c>
@@ -21884,7 +21896,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>8140</v>
       </c>
@@ -21913,7 +21925,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>8141</v>
       </c>
@@ -21942,7 +21954,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>8142</v>
       </c>
@@ -21971,7 +21983,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>8151</v>
       </c>
@@ -22000,7 +22012,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>8152</v>
       </c>
@@ -22029,7 +22041,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>8155</v>
       </c>
@@ -22058,7 +22070,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>8155</v>
       </c>
@@ -22087,7 +22099,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>8156</v>
       </c>
@@ -22116,7 +22128,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>8156</v>
       </c>
@@ -22145,7 +22157,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>8156</v>
       </c>
@@ -22174,7 +22186,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>8157</v>
       </c>
@@ -22203,7 +22215,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>8157</v>
       </c>
@@ -22232,7 +22244,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>8158</v>
       </c>
@@ -22261,7 +22273,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>8158</v>
       </c>
@@ -22290,7 +22302,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>8159</v>
       </c>
@@ -22319,7 +22331,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>8159</v>
       </c>
@@ -22348,7 +22360,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>8159</v>
       </c>
@@ -22377,7 +22389,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>8160</v>
       </c>
@@ -22406,7 +22418,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>8160</v>
       </c>
@@ -22435,7 +22447,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>8162</v>
       </c>
@@ -22464,7 +22476,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>8165</v>
       </c>
@@ -22493,7 +22505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>8166</v>
       </c>
@@ -22522,7 +22534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>8169</v>
       </c>
@@ -22551,7 +22563,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>8172</v>
       </c>
@@ -22580,7 +22592,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>8175</v>
       </c>
@@ -22609,7 +22621,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>8177</v>
       </c>
@@ -22638,7 +22650,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>8178</v>
       </c>
@@ -22667,7 +22679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>8183</v>
       </c>
@@ -22696,7 +22708,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>8183</v>
       </c>
@@ -22725,7 +22737,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>8184</v>
       </c>
@@ -22754,7 +22766,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>8184</v>
       </c>
@@ -22783,7 +22795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>8185</v>
       </c>
@@ -22812,7 +22824,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11">
       <c r="A177" s="2">
         <v>8186</v>
       </c>
@@ -22841,7 +22853,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11">
       <c r="A178" s="2">
         <v>8186</v>
       </c>
@@ -22870,7 +22882,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11">
       <c r="A179" s="2">
         <v>8191</v>
       </c>
@@ -22899,7 +22911,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11">
       <c r="A180" s="2">
         <v>8205</v>
       </c>
@@ -22928,7 +22940,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11">
       <c r="A181" s="2">
         <v>8205</v>
       </c>
@@ -22957,7 +22969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11">
       <c r="A182" s="2">
         <v>8206</v>
       </c>
@@ -22986,7 +22998,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11">
       <c r="A183" s="2">
         <v>8206</v>
       </c>
@@ -23015,7 +23027,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11">
       <c r="A184" s="2">
         <v>8207</v>
       </c>
@@ -23044,7 +23056,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11">
       <c r="A185" s="2">
         <v>8208</v>
       </c>
@@ -23073,7 +23085,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11">
       <c r="A186" s="2">
         <v>8208</v>
       </c>
@@ -23102,7 +23114,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11">
       <c r="A187" s="2">
         <v>8209</v>
       </c>
@@ -23131,7 +23143,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11">
       <c r="A188" s="2">
         <v>8209</v>
       </c>
@@ -23160,7 +23172,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11">
       <c r="A189" s="2">
         <v>8210</v>
       </c>
@@ -23189,7 +23201,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11">
       <c r="A190" s="2">
         <v>8210</v>
       </c>
@@ -23218,7 +23230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11">
       <c r="A191" s="2">
         <v>8211</v>
       </c>
@@ -23247,7 +23259,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11">
       <c r="A192" s="2">
         <v>8212</v>
       </c>
@@ -23276,7 +23288,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>8212</v>
       </c>
@@ -23305,7 +23317,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>8218</v>
       </c>
@@ -23334,7 +23346,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>8221</v>
       </c>
@@ -23363,7 +23375,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>8222</v>
       </c>
@@ -23392,7 +23404,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>8225</v>
       </c>
@@ -23421,7 +23433,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>8226</v>
       </c>
@@ -23450,7 +23462,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>8226</v>
       </c>
@@ -23479,7 +23491,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>8226</v>
       </c>
@@ -23508,7 +23520,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>8233</v>
       </c>
@@ -23537,7 +23549,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>8233</v>
       </c>
@@ -23566,7 +23578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>8234</v>
       </c>
@@ -23595,7 +23607,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>8234</v>
       </c>
@@ -23624,7 +23636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>8237</v>
       </c>
@@ -23653,7 +23665,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>8238</v>
       </c>
@@ -23682,7 +23694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>8238</v>
       </c>
@@ -23711,7 +23723,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>8239</v>
       </c>
@@ -23740,7 +23752,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>8240</v>
       </c>
@@ -23769,7 +23781,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>8240</v>
       </c>
@@ -23798,7 +23810,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>8244</v>
       </c>
@@ -23827,7 +23839,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>8247</v>
       </c>
@@ -23856,7 +23868,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>8248</v>
       </c>
@@ -23885,7 +23897,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11">
       <c r="A214" s="2">
         <v>8249</v>
       </c>
@@ -23914,7 +23926,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11">
       <c r="A215" s="2">
         <v>8249</v>
       </c>
@@ -23943,7 +23955,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11">
       <c r="A216" s="2">
         <v>8250</v>
       </c>
@@ -23972,7 +23984,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11">
       <c r="A217" s="2">
         <v>8250</v>
       </c>
@@ -24001,7 +24013,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11">
       <c r="A218" s="2">
         <v>8251</v>
       </c>
@@ -24030,7 +24042,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11">
       <c r="A219" s="2">
         <v>8252</v>
       </c>
@@ -24059,7 +24071,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11">
       <c r="A220" s="2">
         <v>8253</v>
       </c>
@@ -24088,7 +24100,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11">
       <c r="A221" s="2">
         <v>8254</v>
       </c>
@@ -24117,7 +24129,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11">
       <c r="A222" s="2">
         <v>8254</v>
       </c>
@@ -24146,7 +24158,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11">
       <c r="A223" s="2">
         <v>8254</v>
       </c>
@@ -24175,7 +24187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11">
       <c r="A224" s="2">
         <v>8257</v>
       </c>
@@ -24204,7 +24216,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11">
       <c r="A225" s="2">
         <v>8258</v>
       </c>
@@ -24233,7 +24245,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11">
       <c r="A226" s="2">
         <v>8262</v>
       </c>
@@ -24262,7 +24274,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11">
       <c r="A227" s="2">
         <v>8262</v>
       </c>
@@ -24291,7 +24303,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11">
       <c r="A228" s="2">
         <v>8269</v>
       </c>
@@ -24320,7 +24332,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11">
       <c r="A229" s="2">
         <v>8270</v>
       </c>
@@ -24349,7 +24361,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11">
       <c r="A230" s="2">
         <v>8276</v>
       </c>
@@ -24378,7 +24390,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11">
       <c r="A231" s="2">
         <v>8278</v>
       </c>
@@ -24407,7 +24419,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11">
       <c r="A232" s="2">
         <v>8288</v>
       </c>
@@ -24436,7 +24448,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11">
       <c r="A233" s="2">
         <v>8296</v>
       </c>
@@ -24465,7 +24477,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11">
       <c r="A234" s="2">
         <v>8302</v>
       </c>
@@ -24494,7 +24506,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11">
       <c r="A235" s="2">
         <v>8305</v>
       </c>
@@ -24523,7 +24535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11">
       <c r="A236" s="2">
         <v>8308</v>
       </c>
@@ -24552,7 +24564,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11">
       <c r="A237" s="2">
         <v>8309</v>
       </c>
@@ -24581,7 +24593,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11">
       <c r="A238" s="2">
         <v>8310</v>
       </c>
@@ -24610,7 +24622,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11">
       <c r="A239" s="2">
         <v>8317</v>
       </c>
@@ -24639,7 +24651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11">
       <c r="A240" s="2">
         <v>8318</v>
       </c>
@@ -24668,7 +24680,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11">
       <c r="A241" s="2">
         <v>8318</v>
       </c>
@@ -24697,7 +24709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11">
       <c r="A242" s="2">
         <v>8321</v>
       </c>
@@ -24726,7 +24738,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11">
       <c r="A243" s="2">
         <v>8321</v>
       </c>
@@ -24755,7 +24767,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11">
       <c r="A244" s="2">
         <v>8322</v>
       </c>
@@ -24784,7 +24796,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11">
       <c r="A245" s="2">
         <v>8322</v>
       </c>
@@ -24813,7 +24825,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11">
       <c r="A246" s="2">
         <v>8322</v>
       </c>
@@ -24842,7 +24854,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11">
       <c r="A247" s="2">
         <v>8322</v>
       </c>
@@ -24871,7 +24883,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11">
       <c r="A248" s="2">
         <v>8326</v>
       </c>
@@ -24900,7 +24912,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11">
       <c r="A249" s="2">
         <v>8334</v>
       </c>
@@ -24929,7 +24941,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11">
       <c r="A250" s="2">
         <v>8337</v>
       </c>
@@ -24958,7 +24970,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11">
       <c r="A251" s="2">
         <v>8338</v>
       </c>
@@ -24987,7 +24999,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11">
       <c r="A252" s="2">
         <v>8340</v>
       </c>
@@ -25016,7 +25028,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11">
       <c r="A253" s="2">
         <v>8340</v>
       </c>
@@ -25045,7 +25057,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11">
       <c r="A254" s="2">
         <v>8341</v>
       </c>
@@ -25074,7 +25086,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11">
       <c r="A255" s="2">
         <v>8343</v>
       </c>
@@ -25103,7 +25115,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11">
       <c r="A256" s="2">
         <v>8343</v>
       </c>
@@ -25132,7 +25144,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11">
       <c r="A257" s="2">
         <v>8344</v>
       </c>
@@ -25161,7 +25173,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11">
       <c r="A258" s="2">
         <v>8344</v>
       </c>
@@ -25190,7 +25202,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11">
       <c r="A259" s="2">
         <v>8346</v>
       </c>
@@ -25219,7 +25231,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11">
       <c r="A260" s="2">
         <v>8347</v>
       </c>
@@ -25248,7 +25260,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11">
       <c r="A261" s="2">
         <v>8348</v>
       </c>
@@ -25277,7 +25289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11">
       <c r="A262" s="2">
         <v>8359</v>
       </c>
@@ -25306,7 +25318,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11">
       <c r="A263" s="2">
         <v>8360</v>
       </c>
@@ -25335,7 +25347,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11">
       <c r="A264" s="2">
         <v>8365</v>
       </c>
@@ -25364,7 +25376,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11">
       <c r="A265" s="2">
         <v>8366</v>
       </c>
@@ -25393,7 +25405,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11">
       <c r="A266" s="2">
         <v>8368</v>
       </c>
@@ -25422,7 +25434,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11">
       <c r="A267" s="2">
         <v>8368</v>
       </c>
@@ -25451,7 +25463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11">
       <c r="A268" s="2">
         <v>8371</v>
       </c>
@@ -25480,7 +25492,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11">
       <c r="A269" s="2">
         <v>8372</v>
       </c>
@@ -25509,7 +25521,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11">
       <c r="A270" s="2">
         <v>8375</v>
       </c>
@@ -25538,7 +25550,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11">
       <c r="A271" s="2">
         <v>8376</v>
       </c>
@@ -25567,7 +25579,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11">
       <c r="A272" s="2">
         <v>8376</v>
       </c>
@@ -25596,7 +25608,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11">
       <c r="A273" s="2">
         <v>8377</v>
       </c>
@@ -25625,7 +25637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11">
       <c r="A274" s="2">
         <v>8379</v>
       </c>
@@ -25654,7 +25666,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11">
       <c r="A275" s="2">
         <v>8379</v>
       </c>
@@ -25683,7 +25695,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11">
       <c r="A276" s="2">
         <v>8380</v>
       </c>
@@ -25712,7 +25724,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11">
       <c r="A277" s="2">
         <v>8382</v>
       </c>
@@ -25741,7 +25753,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11">
       <c r="A278" s="2">
         <v>8382</v>
       </c>
@@ -25770,7 +25782,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11">
       <c r="A279" s="2">
         <v>8386</v>
       </c>
@@ -25799,7 +25811,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11">
       <c r="A280" s="2">
         <v>8387</v>
       </c>
@@ -25828,7 +25840,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11">
       <c r="A281" s="2">
         <v>8388</v>
       </c>
@@ -25857,7 +25869,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11">
       <c r="A282" s="2">
         <v>8390</v>
       </c>
@@ -25886,7 +25898,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11">
       <c r="A283" s="2">
         <v>8391</v>
       </c>
@@ -25915,7 +25927,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11">
       <c r="A284" s="2">
         <v>8391</v>
       </c>
@@ -25944,7 +25956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11">
       <c r="A285" s="2">
         <v>8392</v>
       </c>
@@ -25973,7 +25985,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11">
       <c r="A286" s="2">
         <v>8393</v>
       </c>
@@ -26002,7 +26014,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11">
       <c r="A287" s="2">
         <v>8394</v>
       </c>
@@ -26031,7 +26043,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11">
       <c r="A288" s="2">
         <v>8401</v>
       </c>
@@ -26060,7 +26072,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11">
       <c r="A289" s="2">
         <v>8402</v>
       </c>
@@ -26089,7 +26101,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11">
       <c r="A290" s="2">
         <v>8403</v>
       </c>
@@ -26118,7 +26130,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11">
       <c r="A291" s="2">
         <v>8404</v>
       </c>
@@ -26147,7 +26159,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11">
       <c r="A292" s="2">
         <v>8404</v>
       </c>
@@ -26176,7 +26188,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11">
       <c r="A293" s="2">
         <v>8405</v>
       </c>
@@ -26205,7 +26217,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11">
       <c r="A294" s="2">
         <v>8406</v>
       </c>
@@ -26234,7 +26246,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11">
       <c r="A295" s="2">
         <v>8415</v>
       </c>
@@ -26263,7 +26275,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11">
       <c r="A296" s="2">
         <v>8416</v>
       </c>
@@ -26292,7 +26304,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11">
       <c r="A297" s="2">
         <v>8418</v>
       </c>
@@ -26321,7 +26333,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11">
       <c r="A298" s="2">
         <v>8420</v>
       </c>
@@ -26350,7 +26362,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>8420</v>
       </c>
@@ -26379,7 +26391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>8421</v>
       </c>
@@ -26408,7 +26420,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>8422</v>
       </c>
@@ -26437,7 +26449,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>8426</v>
       </c>
@@ -26466,7 +26478,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>8427</v>
       </c>
@@ -26495,7 +26507,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>8428</v>
       </c>
@@ -26524,7 +26536,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11">
       <c r="A305" s="2">
         <v>8430</v>
       </c>
@@ -26553,7 +26565,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11">
       <c r="A306" s="2">
         <v>8432</v>
       </c>
@@ -26582,7 +26594,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11">
       <c r="A307" s="2">
         <v>8432</v>
       </c>
@@ -26611,7 +26623,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11">
       <c r="A308" s="2">
         <v>8434</v>
       </c>
@@ -26640,7 +26652,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11">
       <c r="A309" s="2">
         <v>8439</v>
       </c>
@@ -26669,7 +26681,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11">
       <c r="A310" s="2">
         <v>8439</v>
       </c>
@@ -26698,7 +26710,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11">
       <c r="A311" s="2">
         <v>8440</v>
       </c>
@@ -26727,7 +26739,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11">
       <c r="A312" s="2">
         <v>8440</v>
       </c>
@@ -26756,7 +26768,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11">
       <c r="A313" s="2">
         <v>8440</v>
       </c>
@@ -26785,7 +26797,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11">
       <c r="A314" s="2">
         <v>8441</v>
       </c>
@@ -26814,7 +26826,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11">
       <c r="A315" s="2">
         <v>8442</v>
       </c>
@@ -26843,7 +26855,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11">
       <c r="A316" s="2">
         <v>8445</v>
       </c>
@@ -26872,7 +26884,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11">
       <c r="A317" s="2">
         <v>8446</v>
       </c>
@@ -26901,7 +26913,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11">
       <c r="A318" s="2">
         <v>8447</v>
       </c>
@@ -26930,7 +26942,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11">
       <c r="A319" s="2">
         <v>8448</v>
       </c>
@@ -26959,7 +26971,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11">
       <c r="A320" s="2">
         <v>8451</v>
       </c>
@@ -26988,7 +27000,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11">
       <c r="A321" s="2">
         <v>8452</v>
       </c>
@@ -27017,7 +27029,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11">
       <c r="A322" s="2">
         <v>8452</v>
       </c>
@@ -27046,7 +27058,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11">
       <c r="A323" s="2">
         <v>8453</v>
       </c>
@@ -27075,7 +27087,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11">
       <c r="A324" s="2">
         <v>8453</v>
       </c>
@@ -27104,7 +27116,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11">
       <c r="A325" s="2">
         <v>8454</v>
       </c>
@@ -27133,7 +27145,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11">
       <c r="A326" s="2">
         <v>8454</v>
       </c>
@@ -27162,7 +27174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11">
       <c r="A327" s="2">
         <v>8456</v>
       </c>
@@ -27191,7 +27203,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11">
       <c r="A328" s="2">
         <v>8457</v>
       </c>
@@ -27220,7 +27232,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11">
       <c r="A329" s="2">
         <v>8458</v>
       </c>
@@ -27249,7 +27261,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11">
       <c r="A330" s="2">
         <v>8459</v>
       </c>
@@ -27278,7 +27290,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11">
       <c r="A331" s="2">
         <v>8459</v>
       </c>
@@ -27307,7 +27319,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11">
       <c r="A332" s="2">
         <v>8460</v>
       </c>
@@ -27336,7 +27348,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11">
       <c r="A333" s="2">
         <v>8460</v>
       </c>
@@ -27365,7 +27377,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11">
       <c r="A334" s="2">
         <v>8461</v>
       </c>
@@ -27394,7 +27406,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11">
       <c r="A335" s="2">
         <v>8461</v>
       </c>
@@ -27423,7 +27435,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11">
       <c r="A336" s="2">
         <v>8462</v>
       </c>
@@ -27452,7 +27464,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11">
       <c r="A337" s="2">
         <v>8462</v>
       </c>
@@ -27481,7 +27493,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11">
       <c r="A338" s="2">
         <v>8464</v>
       </c>
@@ -27510,7 +27522,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11">
       <c r="A339" s="2">
         <v>8465</v>
       </c>
@@ -27539,7 +27551,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11">
       <c r="A340" s="2">
         <v>8466</v>
       </c>
@@ -27568,7 +27580,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11">
       <c r="A341" s="2">
         <v>8469</v>
       </c>
@@ -27597,7 +27609,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11">
       <c r="A342" s="2">
         <v>8469</v>
       </c>
@@ -27626,7 +27638,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11">
       <c r="A343" s="2">
         <v>8470</v>
       </c>
@@ -27655,7 +27667,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11">
       <c r="A344" s="2">
         <v>8473</v>
       </c>
@@ -27684,7 +27696,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11">
       <c r="A345" s="2">
         <v>8478</v>
       </c>
@@ -27713,7 +27725,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11">
       <c r="A346" s="2">
         <v>8479</v>
       </c>
@@ -27742,7 +27754,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11">
       <c r="A347" s="2">
         <v>8480</v>
       </c>
@@ -27771,7 +27783,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11">
       <c r="A348" s="2">
         <v>8480</v>
       </c>
@@ -27800,7 +27812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11">
       <c r="A349" s="2">
         <v>8481</v>
       </c>
@@ -27829,7 +27841,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11">
       <c r="A350" s="2">
         <v>8481</v>
       </c>
@@ -27858,7 +27870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11">
       <c r="A351" s="2">
         <v>8482</v>
       </c>
@@ -27887,7 +27899,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11">
       <c r="A352" s="2">
         <v>8483</v>
       </c>
@@ -27916,7 +27928,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11">
       <c r="A353" s="2">
         <v>8485</v>
       </c>
@@ -27945,7 +27957,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11">
       <c r="A354" s="2">
         <v>8486</v>
       </c>
@@ -27974,7 +27986,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11">
       <c r="A355" s="2">
         <v>8487</v>
       </c>
@@ -28003,7 +28015,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11">
       <c r="A356" s="2">
         <v>8488</v>
       </c>
@@ -28032,7 +28044,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11">
       <c r="A357" s="2">
         <v>8488</v>
       </c>
@@ -28061,7 +28073,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11">
       <c r="A358" s="2">
         <v>8489</v>
       </c>
@@ -28090,7 +28102,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11">
       <c r="A359" s="2">
         <v>8492</v>
       </c>
@@ -28119,7 +28131,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11">
       <c r="A360" s="2">
         <v>8498</v>
       </c>
@@ -28148,7 +28160,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11">
       <c r="A361" s="2">
         <v>8502</v>
       </c>
@@ -28177,7 +28189,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11">
       <c r="A362" s="2">
         <v>8503</v>
       </c>
@@ -28206,7 +28218,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11">
       <c r="A363" s="2">
         <v>8504</v>
       </c>
@@ -28235,7 +28247,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11">
       <c r="A364" s="2">
         <v>8505</v>
       </c>
@@ -28264,7 +28276,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11">
       <c r="A365" s="2">
         <v>8508</v>
       </c>
@@ -28293,7 +28305,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11">
       <c r="A366" s="2">
         <v>8509</v>
       </c>
@@ -28322,7 +28334,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11">
       <c r="A367" s="2">
         <v>8510</v>
       </c>
@@ -28351,7 +28363,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11">
       <c r="A368" s="2">
         <v>8511</v>
       </c>
@@ -28380,7 +28392,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11">
       <c r="A369" s="2">
         <v>8521</v>
       </c>
@@ -28409,7 +28421,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11">
       <c r="A370" s="2">
         <v>8522</v>
       </c>
@@ -28438,7 +28450,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11">
       <c r="A371" s="2">
         <v>8533</v>
       </c>
@@ -28467,7 +28479,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11">
       <c r="A372" s="2">
         <v>8534</v>
       </c>
@@ -28496,7 +28508,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11">
       <c r="A373" s="2">
         <v>8534</v>
       </c>
@@ -28525,7 +28537,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11">
       <c r="A374" s="2">
         <v>8534</v>
       </c>
@@ -28554,7 +28566,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11">
       <c r="A375" s="2">
         <v>8534</v>
       </c>
@@ -28583,7 +28595,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11">
       <c r="A376" s="2">
         <v>8535</v>
       </c>
@@ -28612,7 +28624,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11">
       <c r="A377" s="2">
         <v>8546</v>
       </c>
@@ -28641,7 +28653,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11">
       <c r="A378" s="2">
         <v>8546</v>
       </c>
@@ -28670,7 +28682,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11">
       <c r="A379" s="2">
         <v>8561</v>
       </c>
@@ -28699,7 +28711,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11">
       <c r="A380" s="2">
         <v>8561</v>
       </c>
@@ -28728,7 +28740,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11">
       <c r="A381" s="2">
         <v>8562</v>
       </c>
@@ -28757,7 +28769,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11">
       <c r="A382" s="2">
         <v>8562</v>
       </c>
@@ -28786,7 +28798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11">
       <c r="A383" s="2">
         <v>8564</v>
       </c>
@@ -28815,7 +28827,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11">
       <c r="A384" s="2">
         <v>8564</v>
       </c>
@@ -28844,7 +28856,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11">
       <c r="A385" s="2">
         <v>8565</v>
       </c>
@@ -28873,7 +28885,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11">
       <c r="A386" s="2">
         <v>8566</v>
       </c>
@@ -28902,7 +28914,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11">
       <c r="A387" s="2">
         <v>8568</v>
       </c>
@@ -28931,7 +28943,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11">
       <c r="A388" s="2">
         <v>8572</v>
       </c>
@@ -28960,7 +28972,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11">
       <c r="A389" s="2">
         <v>8573</v>
       </c>
@@ -28989,7 +29001,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11">
       <c r="A390" s="2">
         <v>8575</v>
       </c>
@@ -29018,7 +29030,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11">
       <c r="A391" s="2">
         <v>8578</v>
       </c>
@@ -29047,7 +29059,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11">
       <c r="A392" s="2">
         <v>8585</v>
       </c>
@@ -29076,7 +29088,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11">
       <c r="A393" s="2">
         <v>8586</v>
       </c>
@@ -29105,7 +29117,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11">
       <c r="A394" s="2">
         <v>8601</v>
       </c>
@@ -29134,7 +29146,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11">
       <c r="A395" s="2">
         <v>8602</v>
       </c>
@@ -29163,7 +29175,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11">
       <c r="A396" s="2">
         <v>8609</v>
       </c>
@@ -29192,7 +29204,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11">
       <c r="A397" s="2">
         <v>8610</v>
       </c>
@@ -29221,7 +29233,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11">
       <c r="A398" s="2">
         <v>8611</v>
       </c>
@@ -29250,7 +29262,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11">
       <c r="A399" s="2">
         <v>8612</v>
       </c>
@@ -29279,7 +29291,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11">
       <c r="A400" s="2">
         <v>8641</v>
       </c>
@@ -29308,7 +29320,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11">
       <c r="A401" s="2">
         <v>8641</v>
       </c>
@@ -29337,7 +29349,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11">
       <c r="A402" s="2">
         <v>8641</v>
       </c>
@@ -29366,7 +29378,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11">
       <c r="A403" s="2">
         <v>8642</v>
       </c>
@@ -29395,7 +29407,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11">
       <c r="A404" s="2">
         <v>8642</v>
       </c>
@@ -29424,7 +29436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11">
       <c r="A405" s="2">
         <v>8657</v>
       </c>
@@ -29453,7 +29465,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11">
       <c r="A406" s="2">
         <v>8658</v>
       </c>
@@ -29482,7 +29494,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11">
       <c r="A407" s="2">
         <v>8659</v>
       </c>
@@ -29511,7 +29523,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11">
       <c r="A408" s="2">
         <v>8660</v>
       </c>
@@ -29540,7 +29552,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11">
       <c r="A409" s="2">
         <v>8681</v>
       </c>
@@ -29569,7 +29581,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11">
       <c r="A410" s="2">
         <v>8682</v>
       </c>
@@ -29598,7 +29610,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11">
       <c r="A411" s="2">
         <v>8682</v>
       </c>
@@ -29627,7 +29639,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11">
       <c r="A412" s="2">
         <v>8697</v>
       </c>
@@ -29656,7 +29668,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11">
       <c r="A413" s="2">
         <v>8697</v>
       </c>
@@ -29685,7 +29697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11">
       <c r="A414" s="2">
         <v>8698</v>
       </c>
@@ -29714,7 +29726,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11">
       <c r="A415" s="2">
         <v>8698</v>
       </c>
@@ -29757,13 +29769,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>215</v>
       </c>
@@ -29779,7 +29791,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -29830,16 +29842,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08203125" style="1"/>
+    <col min="4" max="4" width="9.125" style="1"/>
     <col min="5" max="6" width="5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -29859,7 +29871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>139</v>
       </c>
